--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H2">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I2">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J2">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2448813333333333</v>
+        <v>0.6668756666666665</v>
       </c>
       <c r="N2">
-        <v>0.734644</v>
+        <v>2.000627</v>
       </c>
       <c r="O2">
-        <v>0.2685817968311001</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.2685817968311001</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9775334685680001</v>
+        <v>2.374543741716222</v>
       </c>
       <c r="R2">
-        <v>8.797801217112001</v>
+        <v>21.370893675446</v>
       </c>
       <c r="S2">
-        <v>0.07176864750434345</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="T2">
-        <v>0.07176864750434345</v>
+        <v>0.2516303646515017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.991866</v>
+        <v>3.046736666666666</v>
       </c>
       <c r="H3">
-        <v>11.975598</v>
+        <v>9.14021</v>
       </c>
       <c r="I3">
-        <v>0.2672133716845888</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J3">
-        <v>0.2672133716845888</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6668756666666668</v>
+        <v>0.6668756666666665</v>
       </c>
       <c r="N3">
         <v>2.000627</v>
       </c>
       <c r="O3">
-        <v>0.7314182031688999</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.7314182031688999</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.662078299994</v>
+        <v>2.031794545741111</v>
       </c>
       <c r="R3">
-        <v>23.958704699946</v>
+        <v>18.28615091167</v>
       </c>
       <c r="S3">
-        <v>0.1954447241802453</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="T3">
-        <v>0.1954447241802453</v>
+        <v>0.2153092375010323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.046736666666666</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H4">
-        <v>9.14021</v>
+        <v>14.505604</v>
       </c>
       <c r="I4">
-        <v>0.2039469203963923</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J4">
-        <v>0.2039469203963923</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2448813333333333</v>
+        <v>0.6668756666666665</v>
       </c>
       <c r="N4">
-        <v>0.734644</v>
+        <v>2.000627</v>
       </c>
       <c r="O4">
-        <v>0.2685817968311001</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.2685817968311001</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.7460889372488888</v>
+        <v>3.224478112634221</v>
       </c>
       <c r="R4">
-        <v>6.714800435239999</v>
+        <v>29.02030301370799</v>
       </c>
       <c r="S4">
-        <v>0.05477643033823236</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="T4">
-        <v>0.05477643033823236</v>
+        <v>0.3416978971743456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.046736666666666</v>
+        <v>2.707878</v>
       </c>
       <c r="H5">
-        <v>9.14021</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I5">
-        <v>0.2039469203963923</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J5">
-        <v>0.2039469203963923</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,276 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6668756666666668</v>
+        <v>0.6668756666666665</v>
       </c>
       <c r="N5">
         <v>2.000627</v>
       </c>
       <c r="O5">
-        <v>0.7314182031688999</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.7314182031688999</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>2.031794545741111</v>
+        <v>1.805817946502</v>
       </c>
       <c r="R5">
-        <v>18.28615091167</v>
+        <v>16.252361518518</v>
       </c>
       <c r="S5">
-        <v>0.1491704900581599</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="T5">
-        <v>0.1491704900581599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.563122666666667</v>
-      </c>
-      <c r="H6">
-        <v>13.689368</v>
-      </c>
-      <c r="I6">
-        <v>0.3054529869415385</v>
-      </c>
-      <c r="J6">
-        <v>0.3054529869415385</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.2448813333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.734644</v>
-      </c>
-      <c r="O6">
-        <v>0.2685817968311001</v>
-      </c>
-      <c r="P6">
-        <v>0.2685817968311001</v>
-      </c>
-      <c r="Q6">
-        <v>1.117423562776889</v>
-      </c>
-      <c r="R6">
-        <v>10.056812064992</v>
-      </c>
-      <c r="S6">
-        <v>0.08203911208018495</v>
-      </c>
-      <c r="T6">
-        <v>0.08203911208018495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.563122666666667</v>
-      </c>
-      <c r="H7">
-        <v>13.689368</v>
-      </c>
-      <c r="I7">
-        <v>0.3054529869415385</v>
-      </c>
-      <c r="J7">
-        <v>0.3054529869415385</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.6668756666666668</v>
-      </c>
-      <c r="N7">
-        <v>2.000627</v>
-      </c>
-      <c r="O7">
-        <v>0.7314182031688999</v>
-      </c>
-      <c r="P7">
-        <v>0.7314182031688999</v>
-      </c>
-      <c r="Q7">
-        <v>3.043035470415111</v>
-      </c>
-      <c r="R7">
-        <v>27.387319233736</v>
-      </c>
-      <c r="S7">
-        <v>0.2234138748613536</v>
-      </c>
-      <c r="T7">
-        <v>0.2234138748613536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.337145333333333</v>
-      </c>
-      <c r="H8">
-        <v>10.011436</v>
-      </c>
-      <c r="I8">
-        <v>0.2233867209774804</v>
-      </c>
-      <c r="J8">
-        <v>0.2233867209774804</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.2448813333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.734644</v>
-      </c>
-      <c r="O8">
-        <v>0.2685817968311001</v>
-      </c>
-      <c r="P8">
-        <v>0.2685817968311001</v>
-      </c>
-      <c r="Q8">
-        <v>0.8172045987537777</v>
-      </c>
-      <c r="R8">
-        <v>7.354841388783999</v>
-      </c>
-      <c r="S8">
-        <v>0.05999760690833927</v>
-      </c>
-      <c r="T8">
-        <v>0.05999760690833927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.337145333333333</v>
-      </c>
-      <c r="H9">
-        <v>10.011436</v>
-      </c>
-      <c r="I9">
-        <v>0.2233867209774804</v>
-      </c>
-      <c r="J9">
-        <v>0.2233867209774804</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.6668756666666668</v>
-      </c>
-      <c r="N9">
-        <v>2.000627</v>
-      </c>
-      <c r="O9">
-        <v>0.7314182031688999</v>
-      </c>
-      <c r="P9">
-        <v>0.7314182031688999</v>
-      </c>
-      <c r="Q9">
-        <v>2.225461018930222</v>
-      </c>
-      <c r="R9">
-        <v>20.029149170372</v>
-      </c>
-      <c r="S9">
-        <v>0.1633891140691411</v>
-      </c>
-      <c r="T9">
-        <v>0.1633891140691411</v>
+        <v>0.1913625006731204</v>
       </c>
     </row>
   </sheetData>
